--- a/FlickerFaces.data/FF4_6/FF4_6_MarkupXLS_2000.xlsx
+++ b/FlickerFaces.data/FF4_6/FF4_6_MarkupXLS_2000.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="16">
   <si>
     <t>Tr</t>
   </si>
@@ -81,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -91,14 +91,22 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,28 +130,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -157,7 +165,7 @@
       <c r="C2">
         <v>7535</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2">
@@ -183,7 +191,7 @@
       <c r="C3">
         <v>10869</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E3">
@@ -209,7 +217,7 @@
       <c r="C4">
         <v>21135</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4">
@@ -235,7 +243,7 @@
       <c r="C5">
         <v>24468</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E5">
@@ -261,7 +269,7 @@
       <c r="C6">
         <v>34235</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E6">
@@ -287,7 +295,7 @@
       <c r="C7">
         <v>37568</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E7">
@@ -313,7 +321,7 @@
       <c r="C8">
         <v>47868</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E8">
@@ -339,7 +347,7 @@
       <c r="C9">
         <v>51201</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E9">
@@ -365,7 +373,7 @@
       <c r="C10">
         <v>59784</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E10">
@@ -391,7 +399,7 @@
       <c r="C11">
         <v>63117</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E11">
@@ -417,7 +425,7 @@
       <c r="C12">
         <v>71884</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E12">
@@ -443,7 +451,7 @@
       <c r="C13">
         <v>75217</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E13">
@@ -469,7 +477,7 @@
       <c r="C14">
         <v>83716</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E14">
@@ -495,7 +503,7 @@
       <c r="C15">
         <v>87050</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E15">
@@ -521,7 +529,7 @@
       <c r="C16">
         <v>94633</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E16">
@@ -547,7 +555,7 @@
       <c r="C17">
         <v>97967</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E17">
@@ -573,7 +581,7 @@
       <c r="C18">
         <v>106599</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E18">
@@ -599,7 +607,7 @@
       <c r="C19">
         <v>109933</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E19">
@@ -619,14 +627,20 @@
       <c r="A20">
         <v>10</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>118433</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -639,14 +653,20 @@
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>121766</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -660,12 +680,12 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>130148</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E22">
@@ -686,12 +706,12 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>133482</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E23">
@@ -711,14 +731,20 @@
       <c r="A24">
         <v>12</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>140799</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -731,14 +757,20 @@
       <c r="A25">
         <v>12</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>144132</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -752,12 +784,12 @@
         <v>13</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26">
         <v>152148</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E26">
@@ -778,12 +810,12 @@
         <v>13</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>155481</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E27">
@@ -804,12 +836,12 @@
         <v>14</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>165448</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E28">
@@ -830,12 +862,12 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>168781</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E29">
@@ -855,14 +887,20 @@
       <c r="A30">
         <v>15</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>177898</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -875,14 +913,20 @@
       <c r="A31">
         <v>15</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>181231</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -896,12 +940,12 @@
         <v>16</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C32">
         <v>188814</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E32">
@@ -922,12 +966,12 @@
         <v>16</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C33">
         <v>192147</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E33">
@@ -948,12 +992,12 @@
         <v>17</v>
       </c>
       <c r="B34">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>198997</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E34">
@@ -974,12 +1018,12 @@
         <v>17</v>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <v>202330</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E35">
@@ -1000,12 +1044,12 @@
         <v>18</v>
       </c>
       <c r="B36">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>209430</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E36">
@@ -1026,12 +1070,12 @@
         <v>18</v>
       </c>
       <c r="B37">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>212763</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E37">
@@ -1051,14 +1095,20 @@
       <c r="A38">
         <v>19</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="B38">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>220697</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1071,14 +1121,20 @@
       <c r="A39">
         <v>19</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>224030</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1092,12 +1148,12 @@
         <v>20</v>
       </c>
       <c r="B40">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C40">
         <v>232329</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E40">
@@ -1118,12 +1174,12 @@
         <v>20</v>
       </c>
       <c r="B41">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C41">
         <v>235663</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E41">
@@ -1144,12 +1200,12 @@
         <v>21</v>
       </c>
       <c r="B42">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C42">
         <v>251446</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E42">
@@ -1170,12 +1226,12 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>254779</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E43">
@@ -1195,14 +1251,20 @@
       <c r="A44">
         <v>22</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="B44">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>264729</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1215,14 +1277,20 @@
       <c r="A45">
         <v>22</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="B45">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>268062</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1236,12 +1304,12 @@
         <v>23</v>
       </c>
       <c r="B46">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C46">
         <v>275811</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E46">
@@ -1262,12 +1330,12 @@
         <v>23</v>
       </c>
       <c r="B47">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C47">
         <v>279145</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E47">
@@ -1288,12 +1356,12 @@
         <v>24</v>
       </c>
       <c r="B48">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C48">
         <v>286894</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E48">
@@ -1314,12 +1382,12 @@
         <v>24</v>
       </c>
       <c r="B49">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>290228</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E49">
@@ -1340,12 +1408,12 @@
         <v>25</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C50">
         <v>300177</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E50">
@@ -1366,12 +1434,12 @@
         <v>25</v>
       </c>
       <c r="B51">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C51">
         <v>303510</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E51">
@@ -1392,12 +1460,12 @@
         <v>26</v>
       </c>
       <c r="B52">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C52">
         <v>312044</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E52">
@@ -1418,12 +1486,12 @@
         <v>26</v>
       </c>
       <c r="B53">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C53">
         <v>315377</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E53">
@@ -1444,12 +1512,12 @@
         <v>27</v>
       </c>
       <c r="B54">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C54">
         <v>323994</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E54">
@@ -1470,12 +1538,12 @@
         <v>27</v>
       </c>
       <c r="B55">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C55">
         <v>327327</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E55">
@@ -1496,12 +1564,12 @@
         <v>28</v>
       </c>
       <c r="B56">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>335960</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E56">
@@ -1522,12 +1590,12 @@
         <v>28</v>
       </c>
       <c r="B57">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>339293</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E57">
@@ -1548,12 +1616,12 @@
         <v>29</v>
       </c>
       <c r="B58">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C58">
         <v>347843</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E58">
@@ -1574,12 +1642,12 @@
         <v>29</v>
       </c>
       <c r="B59">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C59">
         <v>351176</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E59">
@@ -1600,12 +1668,12 @@
         <v>30</v>
       </c>
       <c r="B60">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C60">
         <v>359576</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E60">
@@ -1626,12 +1694,12 @@
         <v>30</v>
       </c>
       <c r="B61">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C61">
         <v>362909</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E61">
@@ -1652,12 +1720,12 @@
         <v>31</v>
       </c>
       <c r="B62">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C62">
         <v>371308</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E62">
@@ -1678,12 +1746,12 @@
         <v>31</v>
       </c>
       <c r="B63">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C63">
         <v>374642</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E63">
@@ -1704,12 +1772,12 @@
         <v>32</v>
       </c>
       <c r="B64">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C64">
         <v>382309</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E64">
@@ -1730,12 +1798,12 @@
         <v>32</v>
       </c>
       <c r="B65">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C65">
         <v>385642</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E65">
@@ -1756,12 +1824,12 @@
         <v>33</v>
       </c>
       <c r="B66">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C66">
         <v>391925</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E66">
@@ -1782,12 +1850,12 @@
         <v>33</v>
       </c>
       <c r="B67">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C67">
         <v>395258</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E67">
@@ -1808,12 +1876,12 @@
         <v>34</v>
       </c>
       <c r="B68">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C68">
         <v>402241</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E68">
@@ -1834,12 +1902,12 @@
         <v>34</v>
       </c>
       <c r="B69">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C69">
         <v>405574</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E69">
@@ -1860,12 +1928,12 @@
         <v>35</v>
       </c>
       <c r="B70">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>413874</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E70">
@@ -1886,12 +1954,12 @@
         <v>35</v>
       </c>
       <c r="B71">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>417207</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E71">
@@ -1912,12 +1980,12 @@
         <v>36</v>
       </c>
       <c r="B72">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C72">
         <v>426674</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E72">
@@ -1938,12 +2006,12 @@
         <v>36</v>
       </c>
       <c r="B73">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C73">
         <v>430007</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E73">
@@ -1963,14 +2031,20 @@
       <c r="A74">
         <v>37</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="B74">
+        <v>37</v>
+      </c>
+      <c r="C74">
+        <v>438274</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -1983,14 +2057,20 @@
       <c r="A75">
         <v>37</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="B75">
+        <v>37</v>
+      </c>
+      <c r="C75">
+        <v>441607</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -2004,12 +2084,12 @@
         <v>38</v>
       </c>
       <c r="B76">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C76">
         <v>449106</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E76">
@@ -2030,12 +2110,12 @@
         <v>38</v>
       </c>
       <c r="B77">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C77">
         <v>452440</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E77">
@@ -2056,12 +2136,12 @@
         <v>39</v>
       </c>
       <c r="B78">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C78">
         <v>463656</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E78">
@@ -2082,12 +2162,12 @@
         <v>39</v>
       </c>
       <c r="B79">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C79">
         <v>466989</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E79">
@@ -2108,12 +2188,12 @@
         <v>40</v>
       </c>
       <c r="B80">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C80">
         <v>475322</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E80">
@@ -2134,12 +2214,12 @@
         <v>40</v>
       </c>
       <c r="B81">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C81">
         <v>478656</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E81">
